--- a/ichi/df_vaults_performance_updated6.xlsx
+++ b/ichi/df_vaults_performance_updated6.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15379"/>
+    <workbookView windowWidth="25032" windowHeight="17340"/>
   </bookViews>
   <sheets>
     <sheet name="df_vaults_performance_updated6" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="68">
   <si>
     <t>vault</t>
   </si>
@@ -64,7 +64,7 @@
     <t>irr_cashflow</t>
   </si>
   <si>
-    <t>Ichi website</t>
+    <t>Ichi web</t>
   </si>
   <si>
     <t>irr_cashflow_7</t>
@@ -88,19 +88,97 @@
     <t>irr_cashflow_non_zero_60</t>
   </si>
   <si>
+    <t>0x692437de2cae5addd26ccf6650cad722d914d974</t>
+  </si>
+  <si>
+    <t>LINK</t>
+  </si>
+  <si>
+    <t>WETH</t>
+  </si>
+  <si>
     <t>0x9ff3c1390300918b40714fd464a39699ddd9fe00</t>
   </si>
   <si>
     <t>WMATIC</t>
   </si>
   <si>
-    <t>WETH</t>
-  </si>
-  <si>
-    <t>0x692437de2cae5addd26ccf6650cad722d914d974</t>
-  </si>
-  <si>
-    <t>LINK</t>
+    <t>0x9c90975b13d04d7d535359887c236ac51f2298ce</t>
+  </si>
+  <si>
+    <t>wstETH</t>
+  </si>
+  <si>
+    <t>FBX</t>
+  </si>
+  <si>
+    <t>0x6bd9239e675092306833c0b29aa552e64d885599</t>
+  </si>
+  <si>
+    <t>POP</t>
+  </si>
+  <si>
+    <t>0x3ac9b3db3350a515c702ba19a001d099d4a5f132</t>
+  </si>
+  <si>
+    <t>USDC</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>0xb05be549a570e430e5dde4a10a0d34cf09a7df21</t>
+  </si>
+  <si>
+    <t>0xa777b0f7f746e93ad30292e9a07b4e336f9511a1</t>
+  </si>
+  <si>
+    <t>fxWEN</t>
+  </si>
+  <si>
+    <t>0x5a0834ebafdf97db54f45a43290b6b09d4226ec6</t>
+  </si>
+  <si>
+    <t>ICHI</t>
+  </si>
+  <si>
+    <t>0x5394eb43700ce8fbbf4cb83e8b52ea73b71426b6</t>
+  </si>
+  <si>
+    <t>WBTC</t>
+  </si>
+  <si>
+    <t>0x74f9d8861d42ac09759ade7809a67cf053dc7ba5</t>
+  </si>
+  <si>
+    <t>SUSHI</t>
+  </si>
+  <si>
+    <t>0xac6c0264511eeec305da9afc2e1aba08409f99f6</t>
+  </si>
+  <si>
+    <t>0xf461063819ffbc6e22704ade1861b0df3bac9585</t>
+  </si>
+  <si>
+    <t>BAL</t>
+  </si>
+  <si>
+    <t>0x4aef5144131db95c110af41c8ec09f46295a7c4b</t>
+  </si>
+  <si>
+    <t>0xc9c785d61455a44e9281c60d19e97a5fdd858510</t>
+  </si>
+  <si>
+    <t>0xf7b1ab2545451b60345fa3ab8c5210d53c703c98</t>
+  </si>
+  <si>
+    <t>CRV</t>
+  </si>
+  <si>
+    <t>0xfc089714519e84b7ce0a4023bfee0d99f6d767da</t>
+  </si>
+  <si>
+    <t>0xdd2521755a8eb05c41c819488d1890e32feb8753</t>
   </si>
   <si>
     <t>0xf3de925524ce6bba606107cfcb2a7a6259cd01ea</t>
@@ -109,72 +187,12 @@
     <t>GHST</t>
   </si>
   <si>
-    <t>0x3ac9b3db3350a515c702ba19a001d099d4a5f132</t>
-  </si>
-  <si>
-    <t>USDC</t>
-  </si>
-  <si>
-    <t>--</t>
-  </si>
-  <si>
-    <t>0xb05be549a570e430e5dde4a10a0d34cf09a7df21</t>
-  </si>
-  <si>
-    <t>0x5a0834ebafdf97db54f45a43290b6b09d4226ec6</t>
-  </si>
-  <si>
-    <t>ICHI</t>
-  </si>
-  <si>
-    <t>0x74f9d8861d42ac09759ade7809a67cf053dc7ba5</t>
-  </si>
-  <si>
-    <t>SUSHI</t>
-  </si>
-  <si>
-    <t>0xac6c0264511eeec305da9afc2e1aba08409f99f6</t>
-  </si>
-  <si>
-    <t>0x5394eb43700ce8fbbf4cb83e8b52ea73b71426b6</t>
-  </si>
-  <si>
-    <t>WBTC</t>
-  </si>
-  <si>
-    <t>0xc9c785d61455a44e9281c60d19e97a5fdd858510</t>
-  </si>
-  <si>
     <t>0x8ac3d7cd56816da9fb45e7640aa70a24884e02f7</t>
   </si>
   <si>
     <t>DPI</t>
   </si>
   <si>
-    <t>0x4aef5144131db95c110af41c8ec09f46295a7c4b</t>
-  </si>
-  <si>
-    <t>0xf461063819ffbc6e22704ade1861b0df3bac9585</t>
-  </si>
-  <si>
-    <t>BAL</t>
-  </si>
-  <si>
-    <t>0xf7b1ab2545451b60345fa3ab8c5210d53c703c98</t>
-  </si>
-  <si>
-    <t>CRV</t>
-  </si>
-  <si>
-    <t>0xfc089714519e84b7ce0a4023bfee0d99f6d767da</t>
-  </si>
-  <si>
-    <t>0x6bd9239e675092306833c0b29aa552e64d885599</t>
-  </si>
-  <si>
-    <t>POP</t>
-  </si>
-  <si>
     <t>0x711901e4b9136119fb047abe8c43d49339f161c3</t>
   </si>
   <si>
@@ -185,6 +203,9 @@
   </si>
   <si>
     <t>USDT</t>
+  </si>
+  <si>
+    <t>0x764c3a611ba0f55be1c7109cdd500e301e0044ba</t>
   </si>
   <si>
     <t>0x70aa3c8e256c859e52c0b8c263f763d9051b95e1</t>
@@ -206,8 +227,8 @@
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="#,##0.0_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -219,40 +240,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,23 +255,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,52 +279,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -357,13 +296,95 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -372,13 +393,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.6"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.6"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,7 +489,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,67 +537,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,78 +567,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -553,18 +574,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -575,21 +584,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -652,15 +646,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -675,153 +660,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -832,14 +841,11 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" quotePrefix="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -900,6 +906,119 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangles 1" descr="Yield IQ"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16512540" y="1226820"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangles 2" descr="Yield IQ"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16512540" y="1927860"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangles 3" descr="Yield IQ"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16512540" y="4206240"/>
+          <a:ext cx="243840" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1160,20 +1279,32 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X21"/>
+  <dimension ref="A1:X25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.50393700787402" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="46.8976377952756" customWidth="1"/>
-    <col min="8" max="8" width="8.45669291338583" customWidth="1"/>
-    <col min="11" max="11" width="11.7244094488189" customWidth="1"/>
-    <col min="12" max="12" width="10" style="1" customWidth="1"/>
-    <col min="16" max="17" width="10.8976377952756" customWidth="1"/>
-    <col min="21" max="21" width="20.251968503937" style="1" customWidth="1"/>
+    <col min="1" max="1" width="32" customWidth="1"/>
+    <col min="2" max="2" width="7.5" customWidth="1"/>
+    <col min="3" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="13.4" customWidth="1"/>
+    <col min="6" max="6" width="22.5" customWidth="1"/>
+    <col min="7" max="7" width="8.3" customWidth="1"/>
+    <col min="8" max="8" width="8.7" customWidth="1"/>
+    <col min="9" max="9" width="10.8" customWidth="1"/>
+    <col min="10" max="11" width="11.9" customWidth="1"/>
+    <col min="12" max="12" width="10.4" customWidth="1"/>
+    <col min="13" max="13" width="12.6" customWidth="1"/>
+    <col min="14" max="15" width="13.7" customWidth="1"/>
+    <col min="16" max="17" width="11.3" customWidth="1"/>
+    <col min="18" max="18" width="13.5" customWidth="1"/>
+    <col min="19" max="20" width="14.6" customWidth="1"/>
+    <col min="21" max="21" width="20.7" style="1" customWidth="1"/>
+    <col min="22" max="22" width="23" style="1" customWidth="1"/>
+    <col min="23" max="24" width="24.1" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
@@ -1210,7 +1341,7 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
       <c r="M1" t="s">
@@ -1222,10 +1353,10 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
       <c r="R1" t="s">
@@ -1240,13 +1371,13 @@
       <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1255,7 +1386,7 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>449982</v>
+        <v>690325</v>
       </c>
       <c r="C2" t="s">
         <v>25</v>
@@ -1267,59 +1398,61 @@
         <v>25</v>
       </c>
       <c r="F2">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="G2">
         <v>1000</v>
       </c>
       <c r="H2">
-        <v>1083.6</v>
+        <v>1100.8</v>
       </c>
       <c r="I2">
-        <v>1011.9</v>
+        <v>999.9</v>
       </c>
       <c r="J2">
-        <v>1027.5</v>
+        <v>1042</v>
       </c>
       <c r="K2">
-        <v>1069.6</v>
-      </c>
-      <c r="L2" s="1">
-        <v>8.4</v>
+        <v>1055.1</v>
+      </c>
+      <c r="L2">
+        <v>10.1</v>
       </c>
       <c r="M2">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="O2">
-        <v>7</v>
-      </c>
-      <c r="P2" s="2">
-        <v>38.1</v>
-      </c>
-      <c r="Q2" s="2"/>
+        <v>5.5</v>
+      </c>
+      <c r="P2">
+        <v>15.3</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0.1514</v>
+      </c>
       <c r="R2">
-        <v>80.4</v>
+        <v>15.7</v>
       </c>
       <c r="S2">
-        <v>39.7</v>
+        <v>19.5</v>
       </c>
       <c r="T2">
-        <v>38.2</v>
+        <v>18.5</v>
       </c>
       <c r="U2" s="1">
-        <v>38.0534443998283</v>
-      </c>
-      <c r="V2">
-        <v>80.3805382204683</v>
-      </c>
-      <c r="W2">
-        <v>39.7054259247773</v>
-      </c>
-      <c r="X2">
-        <v>38.212981248299</v>
+        <v>17.9184003973723</v>
+      </c>
+      <c r="V2" s="1">
+        <v>15.7381976603418</v>
+      </c>
+      <c r="W2" s="1">
+        <v>-98.3815781668695</v>
+      </c>
+      <c r="X2" s="1">
+        <v>-94.5800998891038</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -1327,7 +1460,7 @@
         <v>27</v>
       </c>
       <c r="B3">
-        <v>209081</v>
+        <v>397086</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -1339,1151 +1472,1184 @@
         <v>28</v>
       </c>
       <c r="F3">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="G3">
         <v>1000</v>
       </c>
       <c r="H3">
-        <v>1052</v>
+        <v>1092.6</v>
       </c>
       <c r="I3">
-        <v>1003.1</v>
+        <v>1011</v>
       </c>
       <c r="J3">
-        <v>1000</v>
+        <v>1004.6</v>
       </c>
       <c r="K3">
-        <v>1018.9</v>
-      </c>
-      <c r="L3" s="1">
-        <v>5.2</v>
+        <v>1027.7</v>
+      </c>
+      <c r="L3">
+        <v>9.3</v>
       </c>
       <c r="M3">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O3">
-        <v>1.9</v>
-      </c>
-      <c r="P3" s="2">
-        <v>10</v>
-      </c>
-      <c r="Q3" s="2"/>
+        <v>2.8</v>
+      </c>
+      <c r="P3">
+        <v>14.3</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0.1477</v>
+      </c>
       <c r="R3">
-        <v>17.9</v>
+        <v>76.7</v>
       </c>
       <c r="S3">
-        <v>1.4</v>
+        <v>-2.1</v>
       </c>
       <c r="T3">
-        <v>9.4</v>
+        <v>10.9</v>
       </c>
       <c r="U3" s="1">
-        <v>9.97762932952726</v>
-      </c>
-      <c r="V3">
-        <v>17.9304087590793</v>
-      </c>
-      <c r="W3">
-        <v>1.2648495997554</v>
-      </c>
-      <c r="X3">
-        <v>9.36492055363006</v>
+        <v>14.3116860621027</v>
+      </c>
+      <c r="V3" s="1">
+        <v>76.7466452688319</v>
+      </c>
+      <c r="W3" s="1">
+        <v>-2.09326098070778</v>
+      </c>
+      <c r="X3" s="1">
+        <v>10.900388091023</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
         <v>29</v>
       </c>
       <c r="B4">
-        <v>99772</v>
+        <v>353922</v>
       </c>
       <c r="C4" t="s">
         <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
         <v>30</v>
       </c>
       <c r="F4">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="G4">
         <v>1000</v>
       </c>
       <c r="H4">
-        <v>1354.1</v>
+        <v>1016</v>
       </c>
       <c r="I4">
-        <v>1061.3</v>
-      </c>
-      <c r="J4">
-        <v>1195.9</v>
-      </c>
-      <c r="K4">
-        <v>1256.1</v>
-      </c>
-      <c r="L4" s="1">
-        <v>35.4</v>
+        <v>1002.2</v>
+      </c>
+      <c r="L4">
+        <v>1.6</v>
       </c>
       <c r="M4">
-        <v>6.1</v>
-      </c>
-      <c r="N4">
-        <v>19.6</v>
-      </c>
-      <c r="O4">
-        <v>25.6</v>
-      </c>
-      <c r="P4" s="2">
-        <v>319.8</v>
-      </c>
-      <c r="Q4" s="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="P4">
+        <v>18.7</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0.1868</v>
+      </c>
       <c r="R4">
-        <v>2121.4</v>
-      </c>
-      <c r="S4">
-        <v>778.5</v>
-      </c>
-      <c r="T4">
-        <v>317.3</v>
+        <v>6.2</v>
       </c>
       <c r="U4" s="1">
-        <v>320.063215072126</v>
-      </c>
-      <c r="V4">
-        <v>2121.42836114222</v>
-      </c>
-      <c r="W4">
-        <v>778.537437641291</v>
-      </c>
-      <c r="X4">
-        <v>317.300793812809</v>
+        <v>18.6813760871332</v>
+      </c>
+      <c r="V4" s="1">
+        <v>6.24614564315526</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5">
-        <v>73978</v>
+        <v>74751</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F5">
-        <v>137</v>
+        <v>44</v>
       </c>
       <c r="G5">
         <v>1000</v>
       </c>
       <c r="H5">
-        <v>1030.4</v>
+        <v>1077.3</v>
       </c>
       <c r="I5">
-        <v>996.8</v>
+        <v>1045.4</v>
       </c>
       <c r="J5">
-        <v>984.5</v>
-      </c>
-      <c r="K5">
-        <v>1017.8</v>
-      </c>
-      <c r="L5" s="1">
-        <v>3</v>
+        <v>1079.8</v>
+      </c>
+      <c r="L5">
+        <v>7.7</v>
       </c>
       <c r="M5">
-        <v>-0.3</v>
+        <v>4.5</v>
       </c>
       <c r="N5">
-        <v>-1.6</v>
-      </c>
-      <c r="O5">
-        <v>1.8</v>
-      </c>
-      <c r="P5" s="3">
-        <v>-40.1</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>33</v>
+        <v>8</v>
+      </c>
+      <c r="P5">
+        <v>126.9</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>1.714</v>
       </c>
       <c r="R5">
-        <v>-15.3</v>
+        <v>913.8</v>
       </c>
       <c r="S5">
-        <v>-17.3</v>
-      </c>
-      <c r="T5">
-        <v>12.7</v>
+        <v>154.4</v>
       </c>
       <c r="U5" s="1">
-        <v>-4.34273927989855</v>
-      </c>
-      <c r="V5">
-        <v>-15.2608743265905</v>
-      </c>
-      <c r="W5">
-        <v>-36.7256866540518</v>
-      </c>
-      <c r="X5">
-        <v>-11.6435119962575</v>
+        <v>126.930514548566</v>
+      </c>
+      <c r="V5" s="1">
+        <v>913.834672556169</v>
+      </c>
+      <c r="W5" s="1">
+        <v>154.431769764648</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:24">
       <c r="A6" t="s">
         <v>34</v>
       </c>
       <c r="B6">
-        <v>54797</v>
+        <v>58119</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="F6">
-        <v>57</v>
+        <v>179</v>
       </c>
       <c r="G6">
         <v>1000</v>
       </c>
       <c r="H6">
-        <v>964</v>
+        <v>1023.5</v>
       </c>
       <c r="I6">
-        <v>990.4</v>
+        <v>998.9</v>
       </c>
       <c r="J6">
-        <v>979</v>
-      </c>
-      <c r="L6" s="1">
-        <v>-3.6</v>
+        <v>999.3</v>
+      </c>
+      <c r="K6">
+        <v>989.2</v>
+      </c>
+      <c r="L6">
+        <v>2.4</v>
       </c>
       <c r="M6">
-        <v>-1</v>
+        <v>-0.1</v>
       </c>
       <c r="N6">
-        <v>-2.1</v>
-      </c>
-      <c r="P6" s="3">
-        <v>-22.8</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>33</v>
+        <v>-0.1</v>
+      </c>
+      <c r="O6">
+        <v>-1.1</v>
+      </c>
+      <c r="P6">
+        <v>-35.4</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>36</v>
       </c>
       <c r="R6">
-        <v>-39.5</v>
+        <v>-5.4</v>
       </c>
       <c r="S6">
-        <v>-23</v>
+        <v>0.9</v>
+      </c>
+      <c r="T6">
+        <v>-6.2</v>
       </c>
       <c r="U6" s="1">
-        <v>-22.2090752566821</v>
-      </c>
-      <c r="V6">
-        <v>-39.4803808421715</v>
-      </c>
-      <c r="W6">
-        <v>-22.9554634933798</v>
+        <v>-5.18730847403471</v>
+      </c>
+      <c r="V6" s="1">
+        <v>-5.40691694794004</v>
+      </c>
+      <c r="W6" s="1">
+        <v>-93.7973527671376</v>
+      </c>
+      <c r="X6" s="1">
+        <v>-76.5239352038089</v>
       </c>
     </row>
     <row r="7" spans="1:24">
       <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7">
+        <v>53284</v>
+      </c>
+      <c r="C7" t="s">
         <v>35</v>
-      </c>
-      <c r="B7">
-        <v>33725</v>
-      </c>
-      <c r="C7" t="s">
-        <v>36</v>
       </c>
       <c r="D7" t="s">
         <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F7">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G7">
         <v>1000</v>
       </c>
       <c r="H7">
-        <v>1213.8</v>
+        <v>967.9</v>
       </c>
       <c r="I7">
+        <v>996.6</v>
+      </c>
+      <c r="J7">
         <v>1001.2</v>
       </c>
-      <c r="J7">
-        <v>1009.4</v>
-      </c>
       <c r="K7">
-        <v>1019.3</v>
-      </c>
-      <c r="L7" s="1">
-        <v>21.4</v>
+        <v>997.5</v>
+      </c>
+      <c r="L7">
+        <v>-3.2</v>
       </c>
       <c r="M7">
+        <v>-0.3</v>
+      </c>
+      <c r="N7">
         <v>0.1</v>
       </c>
-      <c r="N7">
-        <v>0.9</v>
-      </c>
       <c r="O7">
-        <v>1.9</v>
-      </c>
-      <c r="P7" s="2">
-        <v>9.2</v>
-      </c>
-      <c r="Q7" s="2"/>
+        <v>-0.3</v>
+      </c>
+      <c r="P7">
+        <v>-13.8</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>36</v>
+      </c>
       <c r="R7">
-        <v>6.7</v>
+        <v>-16.2</v>
       </c>
       <c r="S7">
-        <v>12.1</v>
+        <v>1.4</v>
       </c>
       <c r="T7">
-        <v>11.9</v>
+        <v>-1.5</v>
       </c>
       <c r="U7" s="1">
-        <v>9.17928158070088</v>
-      </c>
-      <c r="V7">
-        <v>6.69827196619348</v>
-      </c>
-      <c r="W7">
-        <v>12.1227134838605</v>
-      </c>
-      <c r="X7">
-        <v>11.9411160865328</v>
+        <v>-12.0656188025127</v>
+      </c>
+      <c r="V7" s="1">
+        <v>-16.1669630469511</v>
+      </c>
+      <c r="W7" s="1">
+        <v>1.41286156423455</v>
+      </c>
+      <c r="X7" s="1">
+        <v>-1.51738549538349</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B8">
-        <v>30096</v>
+        <v>33922</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
         <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F8">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G8">
         <v>1000</v>
       </c>
       <c r="H8">
-        <v>1142.1</v>
+        <v>2315.1</v>
       </c>
       <c r="I8">
-        <v>1011.2</v>
+        <v>1009.1</v>
       </c>
       <c r="J8">
-        <v>1030.3</v>
-      </c>
-      <c r="K8">
-        <v>1092.1</v>
-      </c>
-      <c r="L8" s="1">
-        <v>14.2</v>
+        <v>1057.1</v>
+      </c>
+      <c r="L8">
+        <v>131.5</v>
       </c>
       <c r="M8">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="N8">
-        <v>3</v>
-      </c>
-      <c r="O8">
-        <v>9.2</v>
-      </c>
-      <c r="P8" s="2">
-        <v>59.3</v>
-      </c>
-      <c r="Q8" s="2"/>
+        <v>5.7</v>
+      </c>
+      <c r="P8">
+        <v>25.1</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0.2495</v>
+      </c>
       <c r="R8">
-        <v>78.2</v>
+        <v>60.4</v>
       </c>
       <c r="S8">
-        <v>43.1</v>
-      </c>
-      <c r="T8">
-        <v>55.6</v>
+        <v>96.6</v>
       </c>
       <c r="U8" s="1">
-        <v>59.3646928973468</v>
-      </c>
-      <c r="V8">
-        <v>78.2392982128347</v>
-      </c>
-      <c r="W8">
-        <v>42.2853926076934</v>
-      </c>
-      <c r="X8">
-        <v>55.6144978030924</v>
+        <v>25.0594737850061</v>
+      </c>
+      <c r="V8" s="1">
+        <v>60.4420305587596</v>
+      </c>
+      <c r="W8" s="1">
+        <v>96.6056970002236</v>
       </c>
     </row>
     <row r="9" spans="1:24">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B9">
-        <v>28015</v>
+        <v>28616</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F9">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="G9">
         <v>1000</v>
       </c>
       <c r="H9">
-        <v>1013.8</v>
+        <v>1220.4</v>
       </c>
       <c r="I9">
-        <v>996.5</v>
+        <v>1000.1</v>
       </c>
       <c r="J9">
-        <v>1005.4</v>
+        <v>1000.7</v>
       </c>
       <c r="K9">
-        <v>1012.4</v>
-      </c>
-      <c r="L9" s="1">
-        <v>1.4</v>
+        <v>1011.4</v>
+      </c>
+      <c r="L9">
+        <v>22</v>
       </c>
       <c r="M9">
-        <v>-0.4</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="O9">
-        <v>1.2</v>
-      </c>
-      <c r="P9" s="2">
-        <v>6.7</v>
-      </c>
-      <c r="Q9" s="2"/>
+        <v>1.1</v>
+      </c>
+      <c r="P9">
+        <v>7.8</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0.078</v>
+      </c>
       <c r="R9">
-        <v>-16.8</v>
+        <v>0.4</v>
       </c>
       <c r="S9">
-        <v>6.8</v>
+        <v>0.9</v>
       </c>
       <c r="T9">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="U9" s="1">
-        <v>6.69952776655376</v>
-      </c>
-      <c r="V9">
-        <v>-16.7778058265954</v>
-      </c>
-      <c r="W9">
-        <v>6.79939389938642</v>
-      </c>
-      <c r="X9">
-        <v>7.7717417696221</v>
+        <v>7.76611681135782</v>
+      </c>
+      <c r="V9" s="1">
+        <v>0.423509082432914</v>
+      </c>
+      <c r="W9" s="1">
+        <v>0.850003342739404</v>
+      </c>
+      <c r="X9" s="1">
+        <v>7.16696491254177</v>
       </c>
     </row>
     <row r="10" spans="1:24">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B10">
-        <v>27055</v>
+        <v>27906</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" t="s">
         <v>41</v>
       </c>
-      <c r="E10" t="s">
-        <v>36</v>
-      </c>
       <c r="F10">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="G10">
         <v>1000</v>
       </c>
       <c r="H10">
-        <v>1021.9</v>
+        <v>1027.3</v>
       </c>
       <c r="I10">
-        <v>1001.2</v>
+        <v>1000</v>
       </c>
       <c r="J10">
-        <v>1009.4</v>
+        <v>1002</v>
       </c>
       <c r="K10">
-        <v>1020</v>
-      </c>
-      <c r="L10" s="1">
-        <v>2.2</v>
+        <v>1011.4</v>
+      </c>
+      <c r="L10">
+        <v>2.7</v>
       </c>
       <c r="M10">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="O10">
-        <v>2</v>
-      </c>
-      <c r="P10" s="2">
-        <v>9</v>
-      </c>
-      <c r="Q10" s="2"/>
+        <v>1.1</v>
+      </c>
+      <c r="P10">
+        <v>7.3</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>0.0733</v>
+      </c>
       <c r="R10">
-        <v>6.7</v>
+        <v>0</v>
       </c>
       <c r="S10">
-        <v>12.1</v>
+        <v>2.4</v>
       </c>
       <c r="T10">
-        <v>10</v>
+        <v>7.2</v>
       </c>
       <c r="U10" s="1">
-        <v>9.01463605403003</v>
-      </c>
-      <c r="V10">
-        <v>6.66141050885423</v>
-      </c>
-      <c r="W10">
-        <v>12.0991563364278</v>
-      </c>
-      <c r="X10">
-        <v>9.96462376421977</v>
+        <v>7.32515024301316</v>
+      </c>
+      <c r="V10" s="1">
+        <v>-1.25208104212766e-13</v>
+      </c>
+      <c r="W10" s="1">
+        <v>2.42466025980216</v>
+      </c>
+      <c r="X10" s="1">
+        <v>7.16526394077367</v>
       </c>
     </row>
     <row r="11" spans="1:24">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B11">
-        <v>24669</v>
+        <v>22993</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F11">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="G11">
         <v>1000</v>
       </c>
       <c r="H11">
-        <v>1191.9</v>
+        <v>1188.5</v>
       </c>
       <c r="I11">
-        <v>1000.1</v>
+        <v>993.1</v>
       </c>
       <c r="J11">
-        <v>1009</v>
+        <v>1040.1</v>
       </c>
       <c r="K11">
-        <v>1019.2</v>
-      </c>
-      <c r="L11" s="1">
-        <v>19.2</v>
+        <v>1057.9</v>
+      </c>
+      <c r="L11">
+        <v>18.8</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>-0.7</v>
       </c>
       <c r="N11">
-        <v>0.9</v>
+        <v>4</v>
       </c>
       <c r="O11">
-        <v>1.9</v>
-      </c>
-      <c r="P11" s="2">
-        <v>9.4</v>
-      </c>
-      <c r="Q11" s="2"/>
+        <v>5.8</v>
+      </c>
+      <c r="P11">
+        <v>49.9</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0.5015</v>
+      </c>
       <c r="R11">
-        <v>0.3</v>
+        <v>-30.2</v>
       </c>
       <c r="S11">
-        <v>11.5</v>
+        <v>48.9</v>
       </c>
       <c r="T11">
-        <v>11.5</v>
+        <v>35.5</v>
       </c>
       <c r="U11" s="1">
-        <v>9.37344700955206</v>
-      </c>
-      <c r="V11">
-        <v>0.26139674617234</v>
-      </c>
-      <c r="W11">
-        <v>11.5207841529355</v>
-      </c>
-      <c r="X11">
-        <v>11.4822066583994</v>
+        <v>49.9682317533409</v>
+      </c>
+      <c r="V11" s="1">
+        <v>-30.2122791410321</v>
+      </c>
+      <c r="W11" s="1">
+        <v>48.8748821514187</v>
+      </c>
+      <c r="X11" s="1">
+        <v>33.71035865506</v>
       </c>
     </row>
     <row r="12" spans="1:24">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B12">
-        <v>23571</v>
+        <v>22916</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F12">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="G12">
         <v>1000</v>
       </c>
       <c r="H12">
-        <v>1056.3</v>
+        <v>985.6</v>
       </c>
       <c r="I12">
-        <v>1004.3</v>
+        <v>1004.5</v>
       </c>
       <c r="J12">
-        <v>1011.5</v>
+        <v>959.6</v>
       </c>
       <c r="K12">
-        <v>1035.8</v>
-      </c>
-      <c r="L12" s="1">
-        <v>5.6</v>
+        <v>973</v>
+      </c>
+      <c r="L12">
+        <v>-1.4</v>
       </c>
       <c r="M12">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="N12">
-        <v>1.2</v>
+        <v>-4</v>
       </c>
       <c r="O12">
-        <v>3.6</v>
-      </c>
-      <c r="P12" s="2">
-        <v>20.5</v>
-      </c>
-      <c r="Q12" s="2"/>
+        <v>-2.7</v>
+      </c>
+      <c r="P12">
+        <v>-4.3</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>0.1477</v>
+      </c>
       <c r="R12">
-        <v>25.2</v>
+        <v>26.4</v>
       </c>
       <c r="S12">
-        <v>14.7</v>
+        <v>-39.5</v>
       </c>
       <c r="T12">
-        <v>18.2</v>
+        <v>-15.3</v>
       </c>
       <c r="U12" s="1">
-        <v>20.5137170629954</v>
-      </c>
-      <c r="V12">
-        <v>25.2223632809943</v>
-      </c>
-      <c r="W12">
-        <v>14.2969278098718</v>
-      </c>
-      <c r="X12">
-        <v>18.1883607568782</v>
+        <v>-4.30353560564162</v>
+      </c>
+      <c r="V12" s="1">
+        <v>26.3820486597689</v>
+      </c>
+      <c r="W12" s="1">
+        <v>-39.4522135907531</v>
+      </c>
+      <c r="X12" s="1">
+        <v>-15.3459139468309</v>
       </c>
     </row>
     <row r="13" spans="1:24">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B13">
-        <v>22099</v>
+        <v>22286</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F13">
-        <v>405</v>
+        <v>118</v>
       </c>
       <c r="G13">
         <v>1000</v>
       </c>
       <c r="H13">
-        <v>1150.7</v>
+        <v>1126.5</v>
       </c>
       <c r="I13">
-        <v>991.8</v>
+        <v>1005.2</v>
       </c>
       <c r="J13">
-        <v>998.4</v>
+        <v>1023.5</v>
       </c>
       <c r="K13">
-        <v>1059.3</v>
-      </c>
-      <c r="L13" s="1">
-        <v>15.1</v>
+        <v>1051.6</v>
+      </c>
+      <c r="L13">
+        <v>12.6</v>
       </c>
       <c r="M13">
-        <v>-0.8</v>
+        <v>0.5</v>
       </c>
       <c r="N13">
-        <v>-0.2</v>
+        <v>2.4</v>
       </c>
       <c r="O13">
-        <v>5.9</v>
-      </c>
-      <c r="P13" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="Q13" s="2"/>
+        <v>5.2</v>
+      </c>
+      <c r="P13">
+        <v>39.7</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>0.3956</v>
+      </c>
       <c r="R13">
-        <v>-35</v>
+        <v>31.2</v>
       </c>
       <c r="S13">
-        <v>-1.9</v>
+        <v>33.3</v>
       </c>
       <c r="T13">
-        <v>28.6</v>
+        <v>22.6</v>
       </c>
       <c r="U13" s="1">
-        <v>4.30303895645223</v>
-      </c>
-      <c r="V13">
-        <v>-35.0057485943854</v>
-      </c>
-      <c r="W13">
-        <v>-1.93333928159664</v>
-      </c>
-      <c r="X13">
-        <v>28.6432394201248</v>
+        <v>40.9127528444908</v>
+      </c>
+      <c r="V13" s="1">
+        <v>31.1659100510003</v>
+      </c>
+      <c r="W13" s="1">
+        <v>33.2533232567391</v>
+      </c>
+      <c r="X13" s="1">
+        <v>-99.9996180286696</v>
       </c>
     </row>
     <row r="14" spans="1:24">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B14">
-        <v>16754</v>
+        <v>21740</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E14" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F14">
-        <v>77</v>
+        <v>447</v>
       </c>
       <c r="G14">
         <v>1000</v>
       </c>
       <c r="H14">
-        <v>1089.7</v>
+        <v>1103.4</v>
       </c>
       <c r="I14">
-        <v>1012.8</v>
+        <v>970.7</v>
       </c>
       <c r="J14">
-        <v>1042.2</v>
+        <v>943.1</v>
       </c>
       <c r="K14">
-        <v>1069.6</v>
-      </c>
-      <c r="L14" s="1">
-        <v>9</v>
+        <v>981.2</v>
+      </c>
+      <c r="L14">
+        <v>10.3</v>
       </c>
       <c r="M14">
-        <v>1.3</v>
+        <v>-2.9</v>
       </c>
       <c r="N14">
-        <v>4.2</v>
+        <v>-5.7</v>
       </c>
       <c r="O14">
-        <v>7</v>
-      </c>
-      <c r="P14" s="2">
-        <v>40.4</v>
-      </c>
-      <c r="Q14" s="2"/>
+        <v>-1.9</v>
+      </c>
+      <c r="P14">
+        <v>2.6</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>0.0266</v>
+      </c>
       <c r="R14">
-        <v>42.8</v>
+        <v>-78.7</v>
       </c>
       <c r="S14">
-        <v>44.1</v>
+        <v>-51</v>
       </c>
       <c r="T14">
-        <v>40.2</v>
+        <v>-10.9</v>
       </c>
       <c r="U14" s="1">
-        <v>48.8518227456738</v>
-      </c>
-      <c r="X14">
-        <v>48.5758916027616</v>
+        <v>2.39258977165315</v>
+      </c>
+      <c r="V14" s="1">
+        <v>-78.7375641041065</v>
+      </c>
+      <c r="W14" s="1">
+        <v>-50.9980227853219</v>
+      </c>
+      <c r="X14" s="1">
+        <v>-10.9165407806308</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:24">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B15">
-        <v>13999</v>
+        <v>20922</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E15" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F15">
-        <v>57</v>
+        <v>139</v>
       </c>
       <c r="G15">
         <v>1000</v>
       </c>
       <c r="H15">
-        <v>1067.3</v>
+        <v>1197.4</v>
       </c>
       <c r="I15">
-        <v>1019.2</v>
+        <v>998.9</v>
       </c>
       <c r="J15">
-        <v>1048.7</v>
-      </c>
-      <c r="L15" s="1">
-        <v>6.7</v>
+        <v>1000.4</v>
+      </c>
+      <c r="K15">
+        <v>1004.8</v>
+      </c>
+      <c r="L15">
+        <v>19.7</v>
       </c>
       <c r="M15">
-        <v>1.9</v>
+        <v>-0.1</v>
       </c>
       <c r="N15">
-        <v>4.9</v>
-      </c>
-      <c r="P15" s="2">
-        <v>25.2</v>
-      </c>
-      <c r="Q15" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0.5</v>
+      </c>
+      <c r="P15">
+        <v>7.8</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>0.078</v>
+      </c>
       <c r="R15">
-        <v>169.5</v>
+        <v>-5.7</v>
       </c>
       <c r="S15">
-        <v>82.3</v>
+        <v>0.5</v>
+      </c>
+      <c r="T15">
+        <v>3</v>
       </c>
       <c r="U15" s="1">
-        <v>25.2225713167543</v>
-      </c>
-      <c r="V15">
-        <v>169.496604210688</v>
-      </c>
-      <c r="W15">
-        <v>82.3429468585647</v>
+        <v>7.75428285257194</v>
+      </c>
+      <c r="V15" s="1">
+        <v>-5.71932115186663</v>
+      </c>
+      <c r="W15" s="1">
+        <v>0.463275761740266</v>
+      </c>
+      <c r="X15" s="1">
+        <v>2.97612163249087</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:24">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B16">
-        <v>13988</v>
+        <v>18029</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D16" t="s">
         <v>26</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F16">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="G16">
         <v>1000</v>
       </c>
       <c r="H16">
-        <v>974.4</v>
+        <v>1114.7</v>
       </c>
       <c r="I16">
-        <v>1004.9</v>
+        <v>1003.8</v>
       </c>
       <c r="J16">
-        <v>989.9</v>
-      </c>
-      <c r="L16" s="1">
-        <v>-2.6</v>
+        <v>1045.3</v>
+      </c>
+      <c r="K16">
+        <v>1079.7</v>
+      </c>
+      <c r="L16">
+        <v>11.5</v>
       </c>
       <c r="M16">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="N16">
-        <v>-1</v>
-      </c>
-      <c r="P16" s="3">
-        <v>-10.6</v>
-      </c>
-      <c r="Q16" s="4" t="s">
-        <v>33</v>
+        <v>4.5</v>
+      </c>
+      <c r="O16">
+        <v>8</v>
+      </c>
+      <c r="P16">
+        <v>32.2</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>0.3218</v>
       </c>
       <c r="R16">
-        <v>29.2</v>
+        <v>21.7</v>
       </c>
       <c r="S16">
-        <v>-10.4</v>
+        <v>70.7</v>
+      </c>
+      <c r="T16">
+        <v>56.5</v>
       </c>
       <c r="U16" s="1">
-        <v>-10.5742257521319</v>
-      </c>
-      <c r="V16">
-        <v>29.1561784772107</v>
-      </c>
-      <c r="W16">
-        <v>-10.382940551293</v>
+        <v>50.0047564344679</v>
+      </c>
+      <c r="V16" s="1">
+        <v>21.6608111086588</v>
+      </c>
+      <c r="W16" s="1">
+        <v>70.7029729450418</v>
+      </c>
+      <c r="X16" s="1">
+        <v>56.4674958086451</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:24">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B17">
-        <v>5338</v>
+        <v>14225</v>
       </c>
       <c r="C17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" t="s">
         <v>26</v>
       </c>
-      <c r="D17" t="s">
-        <v>52</v>
-      </c>
       <c r="E17" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="G17">
         <v>1000</v>
       </c>
       <c r="H17">
-        <v>1000</v>
-      </c>
-      <c r="L17" s="1">
-        <v>0</v>
-      </c>
-      <c r="P17" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="2"/>
+        <v>966</v>
+      </c>
+      <c r="I17">
+        <v>988.6</v>
+      </c>
+      <c r="J17">
+        <v>988.3</v>
+      </c>
+      <c r="K17">
+        <v>987.9</v>
+      </c>
+      <c r="L17">
+        <v>-3.4</v>
+      </c>
+      <c r="M17">
+        <v>-1.1</v>
+      </c>
+      <c r="N17">
+        <v>-1.2</v>
+      </c>
+      <c r="O17">
+        <v>-1.2</v>
+      </c>
+      <c r="P17">
+        <v>-9.1</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R17">
+        <v>-45.1</v>
+      </c>
+      <c r="S17">
+        <v>-13.4</v>
+      </c>
+      <c r="T17">
+        <v>-6.6</v>
+      </c>
       <c r="U17" s="1">
-        <v>-0.0302109851041327</v>
+        <v>-9.07056636922922</v>
+      </c>
+      <c r="V17" s="1">
+        <v>-45.0830741995927</v>
+      </c>
+      <c r="W17" s="1">
+        <v>-13.3615329099225</v>
+      </c>
+      <c r="X17" s="1">
+        <v>-6.6481560933517</v>
       </c>
     </row>
-    <row r="18" spans="1:24">
+    <row r="18" spans="1:22">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B18">
-        <v>2157</v>
+        <v>10612</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F18">
-        <v>345</v>
+        <v>23</v>
       </c>
       <c r="G18">
         <v>1000</v>
       </c>
       <c r="H18">
-        <v>1277.2</v>
+        <v>1013.2</v>
       </c>
       <c r="I18">
-        <v>991.7</v>
-      </c>
-      <c r="J18">
-        <v>978.1</v>
-      </c>
-      <c r="K18">
-        <v>1036.7</v>
-      </c>
-      <c r="L18" s="1">
-        <v>27.7</v>
+        <v>1000</v>
+      </c>
+      <c r="L18">
+        <v>1.3</v>
       </c>
       <c r="M18">
-        <v>-0.8</v>
-      </c>
-      <c r="N18">
-        <v>-2.2</v>
-      </c>
-      <c r="O18">
-        <v>3.7</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-8.9</v>
-      </c>
-      <c r="Q18" s="4" t="s">
-        <v>33</v>
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0.4</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>0.0042</v>
       </c>
       <c r="R18">
-        <v>-35.2</v>
-      </c>
-      <c r="S18">
-        <v>-21.1</v>
-      </c>
-      <c r="T18">
-        <v>5.6</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>5.33817998186888</v>
-      </c>
-      <c r="V18">
-        <v>-35.2196984254488</v>
-      </c>
-      <c r="W18">
-        <v>-21.0633723712944</v>
-      </c>
-      <c r="X18">
-        <v>-97.4203410123981</v>
+        <v>0.494505839147766</v>
+      </c>
+      <c r="V18" s="1">
+        <v>-0.00248560239503019</v>
       </c>
     </row>
     <row r="19" spans="1:24">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>8631</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" t="s">
         <v>56</v>
       </c>
-      <c r="E19" t="s">
-        <v>55</v>
-      </c>
       <c r="F19">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="G19">
         <v>1000</v>
       </c>
       <c r="H19">
-        <v>2098.8</v>
+        <v>1385</v>
       </c>
       <c r="I19">
-        <v>1181.2</v>
+        <v>1006.2</v>
       </c>
       <c r="J19">
-        <v>1330</v>
+        <v>1037</v>
       </c>
       <c r="K19">
-        <v>825.6</v>
-      </c>
-      <c r="L19" s="1">
-        <v>109.9</v>
+        <v>1217.8</v>
+      </c>
+      <c r="L19">
+        <v>38.5</v>
       </c>
       <c r="M19">
-        <v>18.1</v>
+        <v>0.6</v>
       </c>
       <c r="N19">
-        <v>33</v>
+        <v>3.7</v>
       </c>
       <c r="O19">
-        <v>-17.4</v>
-      </c>
-      <c r="P19" s="3">
-        <v>-59.5</v>
-      </c>
-      <c r="Q19" s="4" t="s">
-        <v>33</v>
+        <v>21.8</v>
+      </c>
+      <c r="P19">
+        <v>177.2</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>1.7642</v>
       </c>
       <c r="R19">
-        <v>589348.7</v>
+        <v>38.1</v>
       </c>
       <c r="S19">
-        <v>3113.5</v>
+        <v>28.7</v>
       </c>
       <c r="T19">
-        <v>-68.8</v>
+        <v>355.4</v>
       </c>
       <c r="U19" s="1">
-        <v>2548.89532800096</v>
-      </c>
-      <c r="V19">
-        <v>589348.652577454</v>
-      </c>
-      <c r="W19">
-        <v>3113.48471063898</v>
-      </c>
-      <c r="X19">
-        <v>-68.8401738079754</v>
+        <v>177.235477803577</v>
+      </c>
+      <c r="V19" s="1">
+        <v>38.0572948844863</v>
+      </c>
+      <c r="W19" s="1">
+        <v>28.6830028714176</v>
+      </c>
+      <c r="X19" s="1">
+        <v>355.36203860663</v>
       </c>
     </row>
-    <row r="20" spans="1:24">
+    <row r="20" spans="1:22">
       <c r="A20" t="s">
         <v>57</v>
       </c>
+      <c r="B20">
+        <v>411</v>
+      </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>58</v>
@@ -2492,132 +2658,382 @@
         <v>58</v>
       </c>
       <c r="F20">
-        <v>233</v>
+        <v>118</v>
       </c>
       <c r="G20">
         <v>1000</v>
       </c>
       <c r="H20">
-        <v>1026.7</v>
+        <v>1066.5</v>
       </c>
       <c r="I20">
-        <v>1015.8</v>
+        <v>991.7</v>
       </c>
       <c r="J20">
-        <v>1066.4</v>
+        <v>1011.4</v>
       </c>
       <c r="K20">
-        <v>1024.7</v>
-      </c>
-      <c r="L20" s="1">
-        <v>2.7</v>
+        <v>1019.8</v>
+      </c>
+      <c r="L20">
+        <v>6.6</v>
       </c>
       <c r="M20">
-        <v>1.6</v>
+        <v>-0.8</v>
       </c>
       <c r="N20">
-        <v>6.6</v>
+        <v>1.1</v>
       </c>
       <c r="O20">
-        <v>2.5</v>
-      </c>
-      <c r="P20" s="2">
-        <v>4.4</v>
-      </c>
-      <c r="Q20" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="P20">
+        <v>16</v>
+      </c>
+      <c r="Q20">
+        <v>15.8</v>
+      </c>
       <c r="R20">
-        <v>126</v>
+        <v>-35.3</v>
       </c>
       <c r="S20">
-        <v>118.6</v>
+        <v>18.9</v>
       </c>
       <c r="T20">
-        <v>16</v>
+        <v>12.6</v>
       </c>
       <c r="U20" s="1">
-        <v>4.39044582292818</v>
-      </c>
-      <c r="V20">
-        <v>126.042536556533</v>
-      </c>
-      <c r="W20">
-        <v>118.609655601374</v>
-      </c>
-      <c r="X20">
-        <v>16.008201848948</v>
+        <v>52.6293787767233</v>
+      </c>
+      <c r="V20" s="1">
+        <v>-35.301391559613</v>
       </c>
     </row>
     <row r="21" spans="1:24">
       <c r="A21" t="s">
         <v>59</v>
       </c>
+      <c r="B21">
+        <v>176</v>
+      </c>
       <c r="C21" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D21" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="E21" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="F21">
-        <v>406</v>
+        <v>387</v>
       </c>
       <c r="G21">
         <v>1000</v>
       </c>
       <c r="H21">
-        <v>1103.6</v>
+        <v>1221.2</v>
       </c>
       <c r="I21">
-        <v>1019.5</v>
+        <v>993.5</v>
       </c>
       <c r="J21">
-        <v>970.3</v>
+        <v>956</v>
       </c>
       <c r="K21">
-        <v>970.8</v>
-      </c>
-      <c r="L21" s="1">
-        <v>10.4</v>
+        <v>951.3</v>
+      </c>
+      <c r="L21">
+        <v>22.1</v>
       </c>
       <c r="M21">
-        <v>1.9</v>
+        <v>-0.6</v>
       </c>
       <c r="N21">
-        <v>-3</v>
+        <v>-4.4</v>
       </c>
       <c r="O21">
-        <v>-2.9</v>
-      </c>
-      <c r="P21" s="2">
-        <v>3.8</v>
-      </c>
-      <c r="Q21" s="2"/>
+        <v>-4.9</v>
+      </c>
+      <c r="P21">
+        <v>-8.9</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>0.1993</v>
+      </c>
       <c r="R21">
-        <v>173.6</v>
+        <v>-28.7</v>
       </c>
       <c r="S21">
-        <v>-30.7</v>
+        <v>-42.1</v>
       </c>
       <c r="T21">
-        <v>-13.8</v>
+        <v>-9.4</v>
       </c>
       <c r="U21" s="1">
-        <v>2.83229623071808</v>
-      </c>
-      <c r="V21">
-        <v>173.551552254458</v>
-      </c>
-      <c r="W21">
-        <v>-30.6643893269545</v>
-      </c>
-      <c r="X21">
-        <v>-13.7756589153832</v>
+        <v>6.22918812308839</v>
+      </c>
+      <c r="V21" s="1">
+        <v>-28.6571042960396</v>
+      </c>
+      <c r="W21" s="1">
+        <v>-42.1390425423609</v>
+      </c>
+      <c r="X21" s="1">
+        <v>-99.9999770285345</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
+      <c r="A22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22">
+        <v>167</v>
+      </c>
+      <c r="G22">
+        <v>1000</v>
+      </c>
+      <c r="H22">
+        <v>2268.1</v>
+      </c>
+      <c r="I22">
+        <v>980.5</v>
+      </c>
+      <c r="J22">
+        <v>1039.8</v>
+      </c>
+      <c r="K22">
+        <v>1261.1</v>
+      </c>
+      <c r="L22">
+        <v>126.8</v>
+      </c>
+      <c r="M22">
+        <v>-1.9</v>
+      </c>
+      <c r="N22">
+        <v>4</v>
+      </c>
+      <c r="O22">
+        <v>26.1</v>
+      </c>
+      <c r="P22">
+        <v>-59.5</v>
+      </c>
+      <c r="R22">
+        <v>-64.2</v>
+      </c>
+      <c r="S22">
+        <v>60.8</v>
+      </c>
+      <c r="T22">
+        <v>310.2</v>
+      </c>
+      <c r="U22" s="1">
+        <v>2365.82778950629</v>
+      </c>
+      <c r="V22" s="1">
+        <v>-64.1544911720091</v>
+      </c>
+      <c r="W22" s="1">
+        <v>60.7504572471821</v>
+      </c>
+      <c r="X22" s="1">
+        <v>310.150396915125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23">
+        <v>21</v>
+      </c>
+      <c r="G23">
+        <v>1000</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>1000</v>
+      </c>
+      <c r="P23">
+        <v>-11.5</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>0.1917</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
+      <c r="A24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24">
+        <v>275</v>
+      </c>
+      <c r="G24">
+        <v>1000</v>
+      </c>
+      <c r="H24">
+        <v>1061.3</v>
+      </c>
+      <c r="I24">
+        <v>1001.9</v>
+      </c>
+      <c r="J24">
+        <v>1031.6</v>
+      </c>
+      <c r="K24">
+        <v>1103</v>
+      </c>
+      <c r="L24">
+        <v>6.1</v>
+      </c>
+      <c r="M24">
+        <v>0.2</v>
+      </c>
+      <c r="N24">
+        <v>3.2</v>
+      </c>
+      <c r="O24">
+        <v>10.3</v>
+      </c>
+      <c r="P24">
+        <v>8.5</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>0.0861</v>
+      </c>
+      <c r="R24">
+        <v>10.6</v>
+      </c>
+      <c r="S24">
+        <v>46.1</v>
+      </c>
+      <c r="T24">
+        <v>81.5</v>
+      </c>
+      <c r="U24" s="1">
+        <v>8.50588393303925</v>
+      </c>
+      <c r="V24" s="1">
+        <v>10.5572130582358</v>
+      </c>
+      <c r="W24" s="1">
+        <v>46.0596629778655</v>
+      </c>
+      <c r="X24" s="1">
+        <v>81.5473446040441</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24">
+      <c r="A25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" t="s">
+        <v>67</v>
+      </c>
+      <c r="F25">
+        <v>448</v>
+      </c>
+      <c r="G25">
+        <v>1000</v>
+      </c>
+      <c r="H25">
+        <v>1065.8</v>
+      </c>
+      <c r="I25">
+        <v>994.8</v>
+      </c>
+      <c r="J25">
+        <v>966.4</v>
+      </c>
+      <c r="K25">
+        <v>968</v>
+      </c>
+      <c r="L25">
+        <v>6.6</v>
+      </c>
+      <c r="M25">
+        <v>-0.5</v>
+      </c>
+      <c r="N25">
+        <v>-3.4</v>
+      </c>
+      <c r="O25">
+        <v>-3.2</v>
+      </c>
+      <c r="P25">
+        <v>2.4</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0.027</v>
+      </c>
+      <c r="R25">
+        <v>-23.8</v>
+      </c>
+      <c r="S25">
+        <v>-34</v>
+      </c>
+      <c r="T25">
+        <v>-17.9</v>
+      </c>
+      <c r="U25" s="1">
+        <v>1.16034717402514</v>
+      </c>
+      <c r="V25" s="1">
+        <v>-23.7681441710795</v>
+      </c>
+      <c r="W25" s="1">
+        <v>-33.9993513276855</v>
+      </c>
+      <c r="X25" s="1">
+        <v>-17.9336121477002</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>